--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131064773</v>
+        <v>131064784</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,23 +691,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -715,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>442108</v>
+        <v>442100</v>
       </c>
       <c r="R2" t="n">
-        <v>7039138</v>
+        <v>7039221</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,11 +747,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,10 +773,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064784</v>
+        <v>131064775</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,19 +784,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -813,10 +808,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442100</v>
+        <v>442085</v>
       </c>
       <c r="R3" t="n">
-        <v>7039221</v>
+        <v>7039138</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -849,6 +844,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -875,7 +875,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064775</v>
+        <v>131064773</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442085</v>
+        <v>442108</v>
       </c>
       <c r="R4" t="n">
         <v>7039138</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -977,7 +977,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131064768</v>
+        <v>131064776</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>442209</v>
+        <v>442082</v>
       </c>
       <c r="R5" t="n">
-        <v>7039151</v>
+        <v>7039140</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack färska och något äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131064776</v>
+        <v>131064768</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>442082</v>
+        <v>442209</v>
       </c>
       <c r="R6" t="n">
-        <v>7039140</v>
+        <v>7039151</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack färska och något äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131064770</v>
+        <v>131064778</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442198</v>
+        <v>442145</v>
       </c>
       <c r="R9" t="n">
-        <v>7039206</v>
+        <v>7039101</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131064778</v>
+        <v>131064770</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442145</v>
+        <v>442198</v>
       </c>
       <c r="R10" t="n">
-        <v>7039101</v>
+        <v>7039206</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131064766</v>
+        <v>131064783</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1600,23 +1600,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1624,10 +1620,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442271</v>
+        <v>442292</v>
       </c>
       <c r="R11" t="n">
-        <v>7039174</v>
+        <v>7039182</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1660,11 +1656,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1691,10 +1682,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131064783</v>
+        <v>131064766</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,19 +1693,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1722,10 +1717,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442292</v>
+        <v>442271</v>
       </c>
       <c r="R12" t="n">
-        <v>7039182</v>
+        <v>7039174</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1758,6 +1753,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1784,10 +1784,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131064779</v>
+        <v>131064763</v>
       </c>
       <c r="B13" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442245</v>
+        <v>442230</v>
       </c>
       <c r="R13" t="n">
-        <v>7039149</v>
+        <v>7039147</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1855,6 +1855,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1881,10 +1886,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131064763</v>
+        <v>131064779</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1892,21 +1897,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1916,10 +1921,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442230</v>
+        <v>442245</v>
       </c>
       <c r="R14" t="n">
-        <v>7039147</v>
+        <v>7039149</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1952,11 +1957,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2289,7 +2289,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064780</v>
+        <v>131064781</v>
       </c>
       <c r="B18" t="n">
         <v>91804</v>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442259</v>
+        <v>442200</v>
       </c>
       <c r="R18" t="n">
-        <v>7039181</v>
+        <v>7039150</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064781</v>
+        <v>131064780</v>
       </c>
       <c r="B19" t="n">
         <v>91804</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442200</v>
+        <v>442259</v>
       </c>
       <c r="R19" t="n">
-        <v>7039150</v>
+        <v>7039181</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -1589,10 +1589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131064783</v>
+        <v>131064766</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1600,19 +1600,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1620,10 +1624,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442292</v>
+        <v>442271</v>
       </c>
       <c r="R11" t="n">
-        <v>7039182</v>
+        <v>7039174</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1656,6 +1660,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1682,10 +1691,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131064766</v>
+        <v>131064783</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1693,23 +1702,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1717,10 +1722,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442271</v>
+        <v>442292</v>
       </c>
       <c r="R12" t="n">
-        <v>7039174</v>
+        <v>7039182</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1753,11 +1758,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1784,10 +1784,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131064763</v>
+        <v>131064779</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442230</v>
+        <v>442245</v>
       </c>
       <c r="R13" t="n">
-        <v>7039147</v>
+        <v>7039149</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1855,11 +1855,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1886,10 +1881,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131064779</v>
+        <v>131064763</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1897,21 +1892,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1921,10 +1916,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442245</v>
+        <v>442230</v>
       </c>
       <c r="R14" t="n">
-        <v>7039149</v>
+        <v>7039147</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1957,6 +1952,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2187,10 +2187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131064772</v>
+        <v>131064780</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2198,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442099</v>
+        <v>442259</v>
       </c>
       <c r="R17" t="n">
-        <v>7039220</v>
+        <v>7039181</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2258,11 +2258,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2289,10 +2284,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064781</v>
+        <v>131064772</v>
       </c>
       <c r="B18" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2300,21 +2295,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2324,10 +2319,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442200</v>
+        <v>442099</v>
       </c>
       <c r="R18" t="n">
-        <v>7039150</v>
+        <v>7039220</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2360,6 +2355,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2386,7 +2386,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064780</v>
+        <v>131064781</v>
       </c>
       <c r="B19" t="n">
         <v>91804</v>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442259</v>
+        <v>442200</v>
       </c>
       <c r="R19" t="n">
-        <v>7039181</v>
+        <v>7039150</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -1589,10 +1589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131064766</v>
+        <v>131064783</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1600,23 +1600,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1624,10 +1620,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442271</v>
+        <v>442292</v>
       </c>
       <c r="R11" t="n">
-        <v>7039174</v>
+        <v>7039182</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1660,11 +1656,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1691,10 +1682,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131064783</v>
+        <v>131064766</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,19 +1693,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1722,10 +1717,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442292</v>
+        <v>442271</v>
       </c>
       <c r="R12" t="n">
-        <v>7039182</v>
+        <v>7039174</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1758,6 +1753,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131064780</v>
+        <v>131064781</v>
       </c>
       <c r="B17" t="n">
         <v>91804</v>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442259</v>
+        <v>442200</v>
       </c>
       <c r="R17" t="n">
-        <v>7039181</v>
+        <v>7039150</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064772</v>
+        <v>131064780</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2295,21 +2295,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442099</v>
+        <v>442259</v>
       </c>
       <c r="R18" t="n">
-        <v>7039220</v>
+        <v>7039181</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2355,11 +2355,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2386,10 +2381,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064781</v>
+        <v>131064772</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,21 +2392,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2421,10 +2416,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442200</v>
+        <v>442099</v>
       </c>
       <c r="R19" t="n">
-        <v>7039150</v>
+        <v>7039220</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2457,6 +2452,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131064784</v>
+        <v>131064775</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,19 +691,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -711,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>442100</v>
+        <v>442085</v>
       </c>
       <c r="R2" t="n">
-        <v>7039221</v>
+        <v>7039138</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -747,6 +751,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -773,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064775</v>
+        <v>131064773</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -808,7 +817,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442085</v>
+        <v>442108</v>
       </c>
       <c r="R3" t="n">
         <v>7039138</v>
@@ -848,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -875,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064773</v>
+        <v>131064784</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,23 +895,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -910,10 +915,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442108</v>
+        <v>442100</v>
       </c>
       <c r="R4" t="n">
-        <v>7039138</v>
+        <v>7039221</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -946,11 +951,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131064783</v>
+        <v>131064766</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1600,19 +1600,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1620,10 +1624,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442292</v>
+        <v>442271</v>
       </c>
       <c r="R11" t="n">
-        <v>7039182</v>
+        <v>7039174</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1656,6 +1660,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1682,10 +1691,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131064766</v>
+        <v>131064783</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1693,23 +1702,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1717,10 +1722,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442271</v>
+        <v>442292</v>
       </c>
       <c r="R12" t="n">
-        <v>7039174</v>
+        <v>7039182</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1753,11 +1758,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1784,10 +1784,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131064779</v>
+        <v>131064763</v>
       </c>
       <c r="B13" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442245</v>
+        <v>442230</v>
       </c>
       <c r="R13" t="n">
-        <v>7039149</v>
+        <v>7039147</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1855,6 +1855,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1881,10 +1886,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131064763</v>
+        <v>131064779</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1892,21 +1897,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1916,10 +1921,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442230</v>
+        <v>442245</v>
       </c>
       <c r="R14" t="n">
-        <v>7039147</v>
+        <v>7039149</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1952,11 +1957,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2187,10 +2187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131064781</v>
+        <v>131064772</v>
       </c>
       <c r="B17" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2198,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442200</v>
+        <v>442099</v>
       </c>
       <c r="R17" t="n">
-        <v>7039150</v>
+        <v>7039220</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2258,6 +2258,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2284,7 +2289,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064780</v>
+        <v>131064781</v>
       </c>
       <c r="B18" t="n">
         <v>91804</v>
@@ -2319,10 +2324,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442259</v>
+        <v>442200</v>
       </c>
       <c r="R18" t="n">
-        <v>7039181</v>
+        <v>7039150</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2381,10 +2386,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064772</v>
+        <v>131064780</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2392,21 +2397,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2416,10 +2421,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442099</v>
+        <v>442259</v>
       </c>
       <c r="R19" t="n">
-        <v>7039220</v>
+        <v>7039181</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2452,11 +2457,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131064775</v>
+        <v>131064784</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,23 +691,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -715,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>442085</v>
+        <v>442100</v>
       </c>
       <c r="R2" t="n">
-        <v>7039138</v>
+        <v>7039221</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,11 +747,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064773</v>
+        <v>131064775</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -817,7 +808,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442108</v>
+        <v>442085</v>
       </c>
       <c r="R3" t="n">
         <v>7039138</v>
@@ -857,7 +848,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +875,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064784</v>
+        <v>131064773</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,19 +886,23 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -915,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442100</v>
+        <v>442108</v>
       </c>
       <c r="R4" t="n">
-        <v>7039221</v>
+        <v>7039138</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -951,6 +946,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1784,10 +1784,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131064763</v>
+        <v>131064779</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442230</v>
+        <v>442245</v>
       </c>
       <c r="R13" t="n">
-        <v>7039147</v>
+        <v>7039149</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1855,11 +1855,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1886,10 +1881,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131064779</v>
+        <v>131064763</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1897,21 +1892,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1921,10 +1916,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442245</v>
+        <v>442230</v>
       </c>
       <c r="R14" t="n">
-        <v>7039149</v>
+        <v>7039147</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1957,6 +1952,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2187,10 +2187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131064772</v>
+        <v>131064781</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2198,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442099</v>
+        <v>442200</v>
       </c>
       <c r="R17" t="n">
-        <v>7039220</v>
+        <v>7039150</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2258,11 +2258,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2289,7 +2284,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064781</v>
+        <v>131064780</v>
       </c>
       <c r="B18" t="n">
         <v>91804</v>
@@ -2324,10 +2319,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442200</v>
+        <v>442259</v>
       </c>
       <c r="R18" t="n">
-        <v>7039150</v>
+        <v>7039181</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2386,10 +2381,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064780</v>
+        <v>131064772</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,21 +2392,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2421,10 +2416,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442259</v>
+        <v>442099</v>
       </c>
       <c r="R19" t="n">
-        <v>7039181</v>
+        <v>7039220</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2457,6 +2452,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131064784</v>
+        <v>131064775</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,19 +691,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -711,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>442100</v>
+        <v>442085</v>
       </c>
       <c r="R2" t="n">
-        <v>7039221</v>
+        <v>7039138</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -747,6 +751,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -773,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064775</v>
+        <v>131064773</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -808,7 +817,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442085</v>
+        <v>442108</v>
       </c>
       <c r="R3" t="n">
         <v>7039138</v>
@@ -848,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -875,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064773</v>
+        <v>131064784</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,23 +895,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -910,10 +915,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442108</v>
+        <v>442100</v>
       </c>
       <c r="R4" t="n">
-        <v>7039138</v>
+        <v>7039221</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -946,11 +951,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1694,7 +1694,7 @@
         <v>131064783</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>131064779</v>
       </c>
       <c r="B13" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>131064781</v>
       </c>
       <c r="B17" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>131064780</v>
       </c>
       <c r="B18" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>131064782</v>
       </c>
       <c r="B20" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>131064785</v>
       </c>
       <c r="B21" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 54772-2025 artfynd.xlsx
+++ b/artfynd/A 54772-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131064775</v>
+        <v>131064784</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,23 +691,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -715,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>442085</v>
+        <v>442100</v>
       </c>
       <c r="R2" t="n">
-        <v>7039138</v>
+        <v>7039221</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,11 +747,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064773</v>
+        <v>131064775</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -817,7 +808,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442108</v>
+        <v>442085</v>
       </c>
       <c r="R3" t="n">
         <v>7039138</v>
@@ -857,7 +848,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +875,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064784</v>
+        <v>131064773</v>
       </c>
       <c r="B4" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,19 +886,23 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -915,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442100</v>
+        <v>442108</v>
       </c>
       <c r="R4" t="n">
-        <v>7039221</v>
+        <v>7039138</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -951,6 +946,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131064778</v>
+        <v>131064770</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442145</v>
+        <v>442198</v>
       </c>
       <c r="R9" t="n">
-        <v>7039101</v>
+        <v>7039206</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131064770</v>
+        <v>131064778</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442198</v>
+        <v>442145</v>
       </c>
       <c r="R10" t="n">
-        <v>7039206</v>
+        <v>7039101</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1589,10 +1589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131064766</v>
+        <v>131064783</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1600,23 +1600,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1624,10 +1620,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442271</v>
+        <v>442292</v>
       </c>
       <c r="R11" t="n">
-        <v>7039174</v>
+        <v>7039182</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1660,11 +1656,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1691,10 +1682,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131064783</v>
+        <v>131064766</v>
       </c>
       <c r="B12" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,19 +1693,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1722,10 +1717,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442292</v>
+        <v>442271</v>
       </c>
       <c r="R12" t="n">
-        <v>7039182</v>
+        <v>7039174</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1758,6 +1753,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2187,10 +2187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131064781</v>
+        <v>131064772</v>
       </c>
       <c r="B17" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2198,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442200</v>
+        <v>442099</v>
       </c>
       <c r="R17" t="n">
-        <v>7039150</v>
+        <v>7039220</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2258,6 +2258,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2284,7 +2289,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131064780</v>
+        <v>131064781</v>
       </c>
       <c r="B18" t="n">
         <v>91805</v>
@@ -2319,10 +2324,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>442259</v>
+        <v>442200</v>
       </c>
       <c r="R18" t="n">
-        <v>7039181</v>
+        <v>7039150</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2381,10 +2386,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131064772</v>
+        <v>131064780</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2392,21 +2397,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2416,10 +2421,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>442099</v>
+        <v>442259</v>
       </c>
       <c r="R19" t="n">
-        <v>7039220</v>
+        <v>7039181</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2452,11 +2457,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe Även ett påbörjat på 2m</t>
         </is>
       </c>
       <c r="AD19" t="b">
